--- a/biology/Botanique/Square_Émile-Cohl/Square_Émile-Cohl.xlsx
+++ b/biology/Botanique/Square_Émile-Cohl/Square_Émile-Cohl.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Square_%C3%89mile-Cohl</t>
+          <t>Square_Émile-Cohl</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le square Émile-Cohl est un espace vert situé dans le quartier du Bel-Air du 12e arrondissement de Paris
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Square_%C3%89mile-Cohl</t>
+          <t>Square_Émile-Cohl</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Situation et accès</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Ce square municipal est situé près de la porte de Montempoivre sur le boulevard Soult. Il est encadré par le boulevard Soult à l’ouest, la rue Jules-Lemaître au nord, la rue Ernest-Lavisse à l’est. Il est situé juste à côté du square Georges-Méliès.
 Le square est accessible par la ligne 3a du tramway d'Île-de-France à l'arrêt Montempoivre ainsi que par la ligne de métro 1 à la station Porte de Vincennes.
@@ -527,7 +541,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Square_%C3%89mile-Cohl</t>
+          <t>Square_Émile-Cohl</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -545,9 +559,11 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Créé en 1959, le square a une superficie de 2 857 m2. Il porte le nom d'Émile Courtet, dit Émile Cohl (1857-1938), un dessinateur et animateur français, considéré comme l’un des inventeurs du dessin animé[1].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Créé en 1959, le square a une superficie de 2 857 m2. Il porte le nom d'Émile Courtet, dit Émile Cohl (1857-1938), un dessinateur et animateur français, considéré comme l’un des inventeurs du dessin animé.
 </t>
         </is>
       </c>
